--- a/Projeto_Engenharia_de_Software/Documentação/Estimativa_de_tamanho_Adote_Um_Pet.xlsx
+++ b/Projeto_Engenharia_de_Software/Documentação/Estimativa_de_tamanho_Adote_Um_Pet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UniversityStudies\Projeto_Engenharia_de_Software\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjetosUnifei\Adote_Um_Pet\Projeto_Engenharia_de_Software\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D95FFFB7-5270-49C5-99D1-85F5366B0C33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13943D0E-DECF-412E-8443-ED61ACCDD289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11655" yWindow="1035" windowWidth="21045" windowHeight="6000" tabRatio="439" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="171">
   <si>
     <t>Estimativa de Esforço de Projeto baseado em                                                                Pontos de Caso de Uso (vs 1.1)</t>
   </si>
@@ -748,6 +748,21 @@
   </si>
   <si>
     <t>Usuário Comum</t>
+  </si>
+  <si>
+    <t>Alterar doação de produto</t>
+  </si>
+  <si>
+    <t>Remover doação de produto</t>
+  </si>
+  <si>
+    <t>[RFS23]</t>
+  </si>
+  <si>
+    <t>[RFS24]</t>
+  </si>
+  <si>
+    <t>Administrador, Usuario comum</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +1481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1756,50 +1771,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1812,6 +1783,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1823,11 +1838,14 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1835,14 +1853,17 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2541,7 +2562,7 @@
   </sheetPr>
   <dimension ref="A1:AMK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="B11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -2588,32 +2609,32 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
       <c r="K3" s="2"/>
       <c r="L3"/>
       <c r="M3"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
       <c r="K4" s="2"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -2633,54 +2654,54 @@
       <c r="M5"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="113" t="s">
+      <c r="C6" s="126"/>
+      <c r="D6" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="115" t="s">
+      <c r="C7" s="121"/>
+      <c r="D7" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="116"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="3" t="s">
         <v>154</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="114" t="s">
+      <c r="F8" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="114"/>
+      <c r="G8" s="121"/>
       <c r="H8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2693,14 +2714,14 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="6"/>
       <c r="K9"/>
       <c r="L9"/>
@@ -2735,18 +2756,18 @@
       <c r="M11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12"/>
-      <c r="G12" s="119" t="s">
+      <c r="G12" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
       <c r="J12" s="7" t="s">
         <v>9</v>
       </c>
@@ -2757,21 +2778,21 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
       <c r="E13" s="9">
         <f>(Atores!D10+'RFS ou RFC'!D10)*Fatores!E22*Fatores!G36</f>
         <v>64.310399999999987</v>
       </c>
       <c r="F13"/>
-      <c r="G13" s="120" t="s">
+      <c r="G13" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
       <c r="J13" s="10">
         <f t="shared" ref="J13:J20" si="0">$E$13*$E$14*K13</f>
         <v>10.504031999999999</v>
@@ -2784,20 +2805,20 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
       <c r="E14" s="13">
         <v>3.5</v>
       </c>
       <c r="F14"/>
-      <c r="G14" s="122" t="s">
+      <c r="G14" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
       <c r="J14" s="14">
         <f t="shared" si="0"/>
         <v>37.014207999999996</v>
@@ -2810,16 +2831,16 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
       <c r="E15"/>
       <c r="F15"/>
-      <c r="G15" s="122" t="s">
+      <c r="G15" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
       <c r="J15" s="14">
         <f t="shared" si="0"/>
         <v>9.2535519999999991</v>
@@ -2832,16 +2853,16 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
       <c r="E16"/>
       <c r="F16"/>
-      <c r="G16" s="122" t="s">
+      <c r="G16" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
       <c r="J16" s="14">
         <f t="shared" si="0"/>
         <v>15.005759999999997</v>
@@ -2859,11 +2880,11 @@
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
-      <c r="G17" s="125" t="s">
+      <c r="G17" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
       <c r="J17" s="14">
         <f t="shared" si="0"/>
         <v>125.04799999999999</v>
@@ -2881,11 +2902,11 @@
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
-      <c r="G18" s="125" t="s">
+      <c r="G18" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
       <c r="J18" s="14">
         <f t="shared" si="0"/>
         <v>5.0019199999999993</v>
@@ -2902,11 +2923,11 @@
       <c r="D19"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="125" t="s">
+      <c r="G19" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
       <c r="J19" s="14">
         <f t="shared" si="0"/>
         <v>15.255856</v>
@@ -2925,11 +2946,11 @@
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="125" t="s">
+      <c r="G20" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
       <c r="J20" s="14">
         <f t="shared" si="0"/>
         <v>8.0030719999999995</v>
@@ -2946,11 +2967,11 @@
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
-      <c r="G21" s="126" t="s">
+      <c r="G21" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
       <c r="J21" s="18">
         <f>SUM(J13:J20)</f>
         <v>225.08639999999997</v>
@@ -2962,31 +2983,31 @@
       <c r="L21" s="12"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="127"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
       <c r="L22" s="12"/>
     </row>
     <row r="23" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="128" t="s">
+      <c r="B23" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="128"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
       <c r="L23" s="12"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
@@ -3044,47 +3065,47 @@
       <c r="L27" s="12"/>
     </row>
     <row r="28" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="128" t="s">
+      <c r="B28" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="128"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
     </row>
     <row r="37" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B3:J4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B3:J4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B28:J28"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3377,8 +3398,8 @@
   </sheetPr>
   <dimension ref="A1:AMK1013"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3795,7 +3816,7 @@
         <v>33</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="O24" s="67">
         <v>14</v>
@@ -3825,7 +3846,7 @@
       <c r="A26" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="139" t="s">
         <v>159</v>
       </c>
       <c r="C26" s="65">
@@ -3845,8 +3866,8 @@
       <c r="A27" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="64" t="s">
-        <v>143</v>
+      <c r="B27" s="140" t="s">
+        <v>166</v>
       </c>
       <c r="C27" s="65">
         <v>1</v>
@@ -3865,8 +3886,8 @@
       <c r="A28" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="64" t="s">
-        <v>144</v>
+      <c r="B28" s="140" t="s">
+        <v>167</v>
       </c>
       <c r="C28" s="65">
         <v>1</v>
@@ -3886,7 +3907,7 @@
         <v>137</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C29" s="65">
         <v>1</v>
@@ -3906,7 +3927,7 @@
         <v>138</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <v>1</v>
@@ -3924,7 +3945,7 @@
         <v>139</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C31" s="65">
         <v>1</v>
@@ -3944,7 +3965,7 @@
         <v>140</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C32" s="65">
         <v>1</v>
@@ -3964,7 +3985,7 @@
         <v>141</v>
       </c>
       <c r="B33" s="64" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C33" s="65">
         <v>1</v>
@@ -3984,7 +4005,7 @@
         <v>142</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C34" s="65">
         <v>1</v>
@@ -4000,9 +4021,15 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="63"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
+      <c r="A35" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="65">
+        <v>1</v>
+      </c>
       <c r="D35" s="66"/>
       <c r="E35" s="64"/>
       <c r="O35" s="67">
@@ -4010,9 +4037,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="63"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="65"/>
+      <c r="A36" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="65">
+        <v>1</v>
+      </c>
       <c r="D36" s="66"/>
       <c r="E36" s="64"/>
       <c r="O36" s="67"/>
@@ -4075,7 +4108,7 @@
       </c>
       <c r="B43" s="68">
         <f>SUBTOTAL(103,B13:B42)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C43" s="69"/>
       <c r="D43" s="70"/>
@@ -8940,7 +8973,7 @@
     <mergeCell ref="A11:C11"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" sqref="B13 B15:B16 B20:B42" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" sqref="B13 B15:B16 B20:B26 B29:B42" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -9073,12 +9106,12 @@
       <c r="M6"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="134" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" s="12"/>
@@ -9448,12 +9481,12 @@
       <c r="I25"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="134" t="s">
+      <c r="B26" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
       <c r="I26"/>
@@ -9462,11 +9495,11 @@
       <c r="B27" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="135" t="s">
+      <c r="C27" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
       <c r="F27" s="78" t="s">
         <v>31</v>
       </c>
@@ -9479,11 +9512,11 @@
       <c r="B28" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
       <c r="F28" s="30">
         <v>1.5</v>
       </c>
@@ -9496,11 +9529,11 @@
       <c r="B29" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="136" t="s">
+      <c r="C29" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
       <c r="F29" s="30">
         <v>0.5</v>
       </c>
@@ -9513,11 +9546,11 @@
       <c r="B30" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="136" t="s">
+      <c r="C30" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
       <c r="F30" s="30">
         <v>1</v>
       </c>
@@ -9530,11 +9563,11 @@
       <c r="B31" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="136" t="s">
+      <c r="C31" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
       <c r="F31" s="30">
         <v>0.5</v>
       </c>
@@ -9547,11 +9580,11 @@
       <c r="B32" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="136" t="s">
+      <c r="C32" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="136"/>
-      <c r="E32" s="136"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
       <c r="F32" s="30">
         <v>1</v>
       </c>
@@ -9564,11 +9597,11 @@
       <c r="B33" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="136" t="s">
+      <c r="C33" s="132" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="136"/>
-      <c r="E33" s="136"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
       <c r="F33" s="30">
         <v>2</v>
       </c>
@@ -9581,11 +9614,11 @@
       <c r="B34" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="136" t="s">
+      <c r="C34" s="132" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="136"/>
-      <c r="E34" s="136"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="132"/>
       <c r="F34" s="30">
         <v>-1</v>
       </c>
@@ -9598,11 +9631,11 @@
       <c r="B35" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="136" t="s">
+      <c r="C35" s="132" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="136"/>
-      <c r="E35" s="136"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
       <c r="F35" s="30">
         <v>-1</v>
       </c>
@@ -9628,6 +9661,11 @@
   </sheetData>
   <sheetProtection password="C6D5" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="14">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="C27:E27"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C35:E35"/>
@@ -9637,11 +9675,6 @@
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="C27:E27"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" showErrorMessage="1" promptTitle="Influência" sqref="E9:E21 I9:I21" xr:uid="{00000000-0002-0000-0300-000000000000}">
